--- a/crypto/Future + Glassnode/Bybit Data/2/GALUSDT_60min_20h14m42s.xlsx
+++ b/crypto/Future + Glassnode/Bybit Data/2/GALUSDT_60min_20h14m42s.xlsx
@@ -5,19 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenkot\OneDrive\桌面\Python learning\Calvin\Script\Production\Future + Glassnode\Bybit Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenkot\OneDrive\桌面\Python learning\Calvin\Script\Production\Future + Glassnode\Bybit Data\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2335B6-20D7-41A4-BA82-16470788E893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5F935-A98A-4D09-BC72-268E07949898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OI" sheetId="1" r:id="rId1"/>
     <sheet name="Funding Rate" sheetId="2" r:id="rId2"/>
     <sheet name="Price Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2490,6 +2501,1616 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OI!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>openInterest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OI!$B$2:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>987166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>970499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>960834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>929305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>902231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>916774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>906988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>917167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>946110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>947937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>949090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>945334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>946872</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2585575</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3264613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4083988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4402049</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4914238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4252163</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3918677</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4002522</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3718300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3997641</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3873758</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3543282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3476914</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3313597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3182090</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3160119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3132993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2963130</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3051665</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3109002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3086528</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3110917</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2963640</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2905492</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2824344</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2651026</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2623746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2687723</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2573040</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2424382</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2813852</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3055267</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3347357</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3242835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3235014</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3156858</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3142800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3142368</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3128015</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3207594</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3466998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3432023</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3462963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3447648</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3460781</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3552804</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3645221</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3622893</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3148689</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3181833</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3156536</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3175976</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2814479</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2968696</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2996981</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2985286</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2910317</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2950869</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3083027</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3109489</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3133467</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3027385</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3003188</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2736668</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2773581</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2744825</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2666169</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2687539</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2666289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2675833</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2686441</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2594096</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2522467</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2530486</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2461190</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2415702</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2467792</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2454878</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2236155</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2221193</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2165405</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2226162</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2234213</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2238802</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2230665</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2213095</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2239261</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2234967</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2246603</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2258269</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2153888</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2112260</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2118947</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2116155</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2104624</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2117024</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2106345</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2204082</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2281272</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2186019</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2290319</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2359131</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2412532</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2382656</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2397227</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2401262</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2408830</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2384884</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2389092</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2387958</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2406823</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2397156</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2320055</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2300165</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2260332</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2239698</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2253152</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2235138</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2236491</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2275955</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2015733</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1960998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2031291</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2045009</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2013978</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2026324</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2042956</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2034314</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2077129</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2114637</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2140422</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2159120</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2167397</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2135005</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2131510</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2127427</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2037148</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2088820</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2101968</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2103488</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1859622</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1772946</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1830434</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1827908</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1842001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1825874</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1822446</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1812364</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1809705</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1817086</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1746899</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1757287</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1766104</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1776988</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1786965</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1781682</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1780994</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1860140</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1839060</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1845101</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1801947</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1784573</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1943598</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1907686</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1910201</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1882682</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1877446</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1869416</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1871301</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1880116</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1918564</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1894439</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1990475</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2015911</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2130373</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2180184</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2179774</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2203916</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2192217</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2377481</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2921576</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2821686</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3145903</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3172020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3282754</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3308329</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3195145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E373-4E0E-A5C6-013F4384CE44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="762771552"/>
+        <c:axId val="762778032"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OI!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>closePrice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OI!$C$2:$C$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1054999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1054999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1054999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1194999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3075000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2855000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2064999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2044999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.198</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2115</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.218</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2155</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2355</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2565</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.268</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.256</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2535000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2665</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3095000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.327</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3045</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.3085</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.3185</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3294999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3245</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3194999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.3045</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2935000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2845</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2605</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2635000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.276</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2695000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2755000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.288</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2795000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2715000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2685</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2665</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2725</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2585</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.256</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2544999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2444999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.248</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.252</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2415</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2304999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.228</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.2235</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2275</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2315</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.228</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.238</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2464999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.262</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.282</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2755000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.2769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3115000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.306</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.3160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3265</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.3185</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3115000000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3035000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.3025</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.296</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.2915000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.2975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.2595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.2589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.2569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.2685</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.2675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.2649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.2609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.258</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.2715000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.2669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.2665</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.2615000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.2635000000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.262</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.2410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.2324999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.2335</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.2095</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.206</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.2030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.1910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.1964999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.2135</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.2175</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.2235</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.2144999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.2164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.2170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.2310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.2355</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.2284999999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.236</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.226</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.2264999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.2075</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.212</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.2144999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.2030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.196</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.1995</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.2144999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.2135</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.2135</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.2164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.2235</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.2235</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.2344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.3935</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.341</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.3525</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.3485</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.3494999999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.3340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.3280000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E373-4E0E-A5C6-013F4384CE44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="762774432"/>
+        <c:axId val="762775872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="762771552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762778032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="762778032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762771552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="762775872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762774432"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="762774432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="762775872"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-HK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3391,7 +5012,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3927,6 +6091,47 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F24701-7FC9-C2D7-D37A-992E0C8E0270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B68DEA-0B49-71D2-BBA2-B741EE85358B}"/>
             </a:ext>
           </a:extLst>
@@ -4237,8 +6442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6457,6 +8662,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6464,7 +8670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
